--- a/500all/speech_level/speeches_CHRG-114hhrg21484.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21484.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Good morning, meeting here of the Energy and Commerce Subcommittee on Oversight and Investigations. I do want to announce to members this hearing is here and not in Room 2123. I just want you to know. I was there, you were not. It was a very powerful, moving----</t>
   </si>
   <si>
     <t>400414</t>
   </si>
   <si>
-    <t>Fred Upton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Upton. There was a very long line of folks to get in.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400101</t>
   </si>
   <si>
-    <t>Diana DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you so much, Mr. Chairman. This is a really important hearing. We have been worried for quite some time here in Congress and at the agencies about the risk of resistant antibiotics. And this report last month about the superbug has been quite concerning to all of us.    The bacterium's resistance to colistin is particularly concerning because in this country physicians use colistin as the treatment of last resort when other antibiotics are no longer effective. Public health experts fear that this gene could jump to other bacteria that are already resistant to most other antibiotics.    Here is another observation about Dr. Frieden. He said, ``It basically shows that the end of the road isn't very far away for antibiotics, that we may be in a situation where we have patients in our intensive care units or patients getting urinary tract infections for which we do not have antibiotics.''    Obviously, we are all concerned about this, and I know all the witnesses and the members share this concern. We really don't want to revert to a time when physicians no longer have the tools to treat infections. Even common and once easily treated infections could once again prove life-threatening.    That this newest superbug has emerged on our home turf should not surprise us. Public health and infectious disease experts have been sounding the alarm for years. But I hope that this new discovery will lend urgency to efforts to monitor and fight antibiotic resistance.    The CDC has reported for decades that overuse of antibiotics and poor hygiene practices in hospitals and other inpatient health care settings contribute to the formation of drug-resistant bacteria. For example, studies showed that 30 to 50 percent of antibiotics prescribed in hospitals were unnecessary or inappropriate. Public health experts have similarly warned us about overprescribing of antibiotics in outpatient settings. A recent Pew study, for example, found that about 30 percent of all outpatient office visits in the U.S. resulted in the prescribing of an antibiotic, but 30 percent of those, which is almost 50, 5-0 million prescriptions are unnecessary.    Now, in the last decade these issues have received increased attention and funding, but as our witnesses will testify today, there is still far more to do. And I want to hear from our witnesses in particular in two different areas. The first one is antibiotic stewardship programs, which can both decrease the spread of infections and reduce the inappropriate use of antibiotics.    We need to improve public health education to ensure that patients and physicians understand how and when antibiotics should be prescribed. We need such stewardship programs both in health care facilities like hospitals and also in communities. I am hoping I can hear from our witnesses about antibiotic stewardship and whether we are seeing positive outcomes from current efforts.    I also am interested to see how antibiotic stewardship programs can result in more appropriate and effective use of antibiotics in animals. I think more needs to be done to shed a light on these issues, and I am interested to see what the witnesses will have to say. I do wish that we had a witness from the USDA because antibiotic overuse in animals is a really big problem.    The second area I want to hear about is the development of new antibiotics, diagnostics, and even vaccines to address the issue of antibiotic resistance. All of these agencies today play a critical role in the development of new drugs and other tools.    I can't lose the opportunity to talk about our wonderful bill that Chairman Upton and I have cosponsored, along with all the other members of this subcommittee. Earlier this year, the 21st Century Cures Act passed out of the Energy and Commerce Committee unanimously and was then passed by the full House on an overwhelming basis. The bill includes the text of the Antibiotic Development to Advance Patient Treatment Act, or ADAPT Act. This is a really important bill that was originally cosponsored by Congressman Green and Congressman Shimkus, and it creates a new FDA approval pathway for limited population antibacterial drugs.    This legislation is designed to provide an approval process for drugs that affect a limited population of patients with serious or life-threatening infections or for drugs that fill an unmet need. We really need to pass the ADAPT Act. The easiest way to do this is of course for the Senate to pass the 21st Century Cures bill, and frankly, we keep hearing assurances that this will be happening any day. So maybe this urgent issue can be used to help enact this important law into law.    So, Mr. Chairman, I really want to thank you for having this hearing. It is an important one. And I want to thank our witnesses again for coming today, and I yield back.</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman.    Antibiotics, it is my understanding--I am the engineer in the room, not the practicing physician, but my understanding is that the antibiotics are not effective against viruses, and this seems to be a good scientific fact from which to begin with. But yet in America you have heard the statistics. A third of the antibiotics are overprescribed by doctors. The CDC said that 47 million prescriptions were unnecessarily prescribed or inappropriately prescribed for cases that don't respond to the antibiotics.    And then the other point it comes down to is that we only represent 5 percent of the population in the world, so we have got 95 percent of the world out there--in many respects we know there are 20 nations in Europe and we know Mexico gives you antibiotics over the counter. And that tends to get to a point where we are probably going to overprescribe or they are going to be inappropriately used and our body will be able to build up resistance to that as a result of this inappropriate use for that.    And then we go to this, fast-forward to today with the woman in Pennsylvania. The interesting part is going to be how we are going to respond to that because how did she get it and what are we going to do to respond to that? So watching the time frame with this, we don't know if these antibiotics are used to help will even be effective in the future because of this overuse, overprescription.</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. I thank the gentleman for yielding. And I do want to thank our panelists for being here today. And I am most interested in knowing how you all are going to be working together on an interagency basis to see that we achieve the goals. I would like to hear from you perhaps some of your thoughts on what the legislative branch might do in addition to getting the Cures bill passed over in the other body.    And then finally, there was a significant amount of money made available in this area last December, and I would like to hear from each of you how that money has been allocated and utilized and as to whether or not you thought it had been of any benefit.    Thank you, Mr. Chairman. I will yield back.</t>
   </si>
   <si>
@@ -118,18 +103,12 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    Antibiotic resistance is a significant domestic and global threat to both public health and national security, and I am glad we are taking the opportunity to examine this issue. I want to begin by emphasizing that antibiotics are incredibly valuable tools that have made once-fatal infections easily treatable, and antibiotics have transformed our health care system.    But as the use of antibiotics has spread, the threat posed by antibiotic-resistant bacteria or superbugs has grown. For that effective, coordinated, and decisive government action, we risk entering into a post-antibiotic world where common infections could once again become life-threatening.    The recent discovery of the MCR-1 gene on a colistin-resistant strain of the E. coli bacteria signals that this day is closer than it has ever been before. We see alarming statistics about the rates of overprescribing of antibiotics both for unnecessary and inappropriate use. At the same time, we have seen that drug manufacturers are unable to produce enough new drugs to meet this threat. There is no question that our arsenal of effective antibiotics is dangerously low today as a result of antibiotic resistance, and it is a dire situation.    That said, I am encouraged by the attention and funding we have placed on antibiotic resistance in recent years. Last year, the White House unveiled its National Action Plan for Combating Antibiotic-Resistant Bacteria, which sets forth ambitious goals to fight antibiotic resistance. All the agencies before us today play critical roles in that effort. In fiscal year 2016, we are devoting over $830 million to fighting antibiotic resistance, and President Obama has requested $1.1 billion towards this effort for fiscal year 2017. And these are important investments.    But in order for us to effectively address antibiotic resistance we need to make this a priority for the foreseeable future. This is not an issue we can address for a few years and then ignore. Antibiotic resistance is a reality of nature. Bacteria begin to mutate and develop resistance as soon as a new antibiotic begins to be used. We must develop long-term strategies and guarantee long-term funding to fight antibiotic resistance, and once we have begun implementing those strategies and ramping up funding, we must follow through on our commitments.    It is also important to emphasize that this is a global threat. It is not enough to address resistance here in the United States and hope that it will keep us protected. And from a global perspective, we must recognize that we are only as strong as our weakest link. In some places, antibiotics are used sparingly in the United States are available over the counter. In many countries, a lack of hygiene, sanitation, and basic infection control in medical settings results in increased antibiotic consumption.    If we do not want these superbugs here in the United States, we need to stop them from developing both here and abroad, and we must also improve global surveillance of antibiotic-resistant bacteria and antibiotic consumption. Stopping the spread of antibiotic-resistant bacteria is a global threat, and therefore, solutions must be global in nature.    So I just want to thank the witnesses, look forward to the promising work at each of your agencies and how we in Congress can be your partners in moving forward. And I yield my remaining time to Mr. Green of Texas.</t>
   </si>
   <si>
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. Thanks to our ranking member for yielding to me.    As said before, researchers have found a person in the United States carrying bacteria resistance to antibiotics of last resort, an alarming development that could mean the end of the road for antibiotics. For years, scientific leaders across the globe have been warning if we don't take swift, aggressive action, a post-antibiotic era in which modern medicine we take for granted is no longer safe because we will not be able to control infection from childbirth, in surgery, to dialysis and chemotherapy. Even simple cuts and wounds could be at increased risk of turning fatal without effective antibiotic treatments.    Alarmingly, at a time when resistance is rising, a pipeline for new antibiotics has dried up. Resistance can and must be slowed, but it cannot be stopped, and we need new classes of antibiotics to combat drug-resistant antibiotics.    The public value of antibiotics is difficult to overestimate, yet there is a widening acknowledged market fail when it comes to antibiotics. We need meaningful research incentives, strong public-private partnerships, and flexible clinical trials. That is why not only myself but our committee championed the ADAPT Act. It passed in the 21st Century Cures. It would enable the FDA to work with sponsors and reduce regulatory barriers to antibiotic drug development.    ADAPT offers one tool Congress can enact to address the lack of effective treatments against superbugs. I look forward to hearing more about that proposal and other ideas Congress should consider in the ongoing efforts to address this public health crisis.    And again, I will yield back my 14 seconds.</t>
   </si>
   <si>
@@ -142,36 +121,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Bell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Bell. Thank you. Good morning, Chairman Murphy, Ranking Member DeGette, and members of the subcommittee. I am Dr. Beth Bell, director of the National Center for Emerging and Zoonotic Infectious Diseases at the Centers for Disease Control and Prevention. And thank you for the opportunity to testify before you today.    CDC works 24/7 to save lives and protect people against health threats, including the threat of potentially untreatable infections. With support from Congress, CDC is working to improve the Nation's capacity to detect, respond, and prevent antibiotic-resistant threats in health care settings and across communities to protect Americans and save lives.    Using the resources provided by Congress in fiscal year 2016, CDC is working on four fronts to support transformative improvements in our national capability to identify and respond to antibiotic resistance. First, CDC will invest the largest portion of this funding in our 50 states, six largest cities, and Puerto Rico. CDC will support state activities to improve the detection and prevention of AR infections transmitted across health care and community settings. These are just-in-time investments as the pace and challenges of antibiotic resistance are accelerating and every state needs capacity to take appropriate action.    Second, CDC's antibiotic resistance lab network will provide infrastructure and lab capacity through seven regional labs across the country. These labs will be able to detect resistant organisms recovered from human samples and new forms of antibiotic resistance. CDC will also provide support for labs in all States to test for CRE, the nightmare bacteria.    Third, CDC's Advanced Molecular Detection initiative is another important tool in our efforts to identify and solve more outbreaks faster. Because of innovations developed through this AMD initiative, CDC will be able to scale up whole genome sequencing of multiple foodborne pathogens to better understand foodborne antibiotic resistance patterns. Through the National Antimicrobial Resistance Monitoring System, NARMS, sequences from animals, from retail meat, and from humans will be compared to identify new ways of preventing human infections.    Finally, our ability to reduce antibiotic resistance will depend in part on improving antibiotic use, and we are working towards that through better measurement, through expansion of stewardship programs, and through educational campaigns.    The administration's budget request for fiscal year 2017 includes an increase of $40 million for year 2 of CDC's Antibiotic Resistance Solutions initiative. And so in fiscal year 2017, in addition to sustaining AR capacity started in '16, CDC will expand state antibiotic resistance prevention programs to better respond to outbreaks, to improve prescribing, and prevent antibiotic-resistant infections across all health care settings.    These collective investments have a direct impact on the response to AR threats, including the emergence of the MCR-1 gene in the United States. In May, Department of Defense scientists announced the first discovery of the MCR-1 gene in bacteria isolated from a person in the United States. Although there is not an immediate threat to the public or the current health of this patient, this is an important development for the United States. The antibiotic colistin is used as a rescue drug to treat patients with multidrug-resistant infections like     The MCR-1 gene makes bacteria resistant to colistin. The gene exists on a plasmid, which is a small piece of DNA that is capable of moving from one bacterium to another, spreading antibiotic resistance among bacterial species. The presence of the MCR-1 gene and its ability to share its colistin resistance with other bacteria such as CRE raises the possibility of a bacteria that is resistant to every antibiotic.    USDA also discovered MCR-1 in E. coli isolates collected from two different pig intestines. By comparing the DNA sequences of all three isolates, Federal scientists have determined that the isolates from the pigs are different from that from the human.    Yesterday, CDC issued an alert to proactively notify states, hospitals, and clinical laboratories about the availability of new detection tools for MCR-1 and to reiterate recommendations for infection prevention, environmental cleaning, and reporting to public health.    The identification of MCR-1 vividly illustrates our domestic and global challenges of antibiotic resistance. MCR-1 was first identified in China in November of last year, and in less than 6 months has been identified in a human and two animals in the United States. Antibiotic use anywhere can potentially affect any one of us.    The emergence and reemergence of health threats, including those caused by antibiotic-resistant bacteria, is something we can expect to continue to see in the future. If we lose antibiotics, we could lose the ability to effectively treat sepsis and to provide the care to cancer patients, to organ transplant recipients, or burn and trauma victims.    So thank you again for the opportunity to appear before you today, and I look forward to the opportunity to answer your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you. Dr. Woodcock, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Woodcock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Woodcock. Thank you for holding a hearing on this critical topic.    FDA is involved in many fronts in the fight against resistant organisms. We're participating actively in the CARB initiative and collaborating internationally and also of course with our Federal partners represented here. Our Center for Veterinary Medicine oversees animal drugs. They have received commitments from the manufacturers are medically important antibiotics to submit supplements by the end of the year. As a result of this, these drugs will have to be prescribed by a veterinarian and can't be used for growth promotion purposes.    Our Center for Devices and Radiologic Health regulates in vitro diagnostics or test kits, including antimicrobial susceptibility tests and diagnostics. They're seeing a growing pipeline of rapid diagnostic tests under development. This is very good news. These tests are intended to identify if a person has a bacterial infection or--versus a virus or has bacteria circulating in the blood or even rapidly diagnose certain types of resistant organisms. So we hope these development programs are successful.    They also plan to issue guidance on what they call coordinated development of susceptibility tests. So as we have new antimicrobials approved by Center for Drugs, we could have susceptibility tests also available that could be interpreted by clinicians.    Our Center for Biologics regulates vaccines. We know that prevention is a best approach to disease, and of course there are some vaccines for microbial diseases, and we would hope that more are going to be developed.    The Center for Drug Evaluation and Research that I head regulates antimicrobials. We've seen the percent of infections treated by common antibiotics shrink over time, as everybody's been saying, as resistance grows. CDER's been actively implementing the GAIN Act that Congress passed several years ago. We've granted 107 qualified infectious disease product designations to 63 different molecules. The designated products can receive fast-track designation, and they get a priority review. On approval, they receive additional 5 years of market exclusivity, so this is an incentive of course. Five designated antibacterial drugs and one antifungal drug have been approved since GAIN was enacted.     We continue to work on streamlining drug development. We've issued guidelines. We're trying to lower the barriers, but many of the barriers, as I'm sure we'll discuss, are either scientific or economic barriers to new antimicrobials.    Now, there are further efforts going on in lowering the barriers. I really commend BARDA who is exploring the use of a master common protocol. We're working with them, novel ways of studying these that lower the barriers and make some types of studies actually feasible.    The 21st Century Cures bill that was passed in the House contains provisions for the limited population use provision, and the Senate PATH Act does mirror that. We're also very interested in the issue of antimicrobial break points and the use of a more rapid and agile method for changing the break point designations.    Finally, though, drug development in this area remains fragile and weak. The incentives that have been put in place apparently are not enough to overcome the scientific challenges that the industry faces in finding new targets and developing these and then actually making money on them. Much more needs to be done, I think, to address this threat across all the groups represented here, but the drug development area in particular needs further examination.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Dr. Woodcock.    I now recognize Dr. Hatchett for 5 minutes.</t>
   </si>
   <si>
-    <t>Hatchett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hatchett. Good morning, Chairman Murphy, Ranking Member DeGette, and members of the committee. Thank you for inviting me to testify about our efforts to combat antibiotic-resistant bacteria. I am Dr. Richard Hatchett, acting director of the Biomedical Advanced Research and Development Authority within the Office of the Assistant Secretary for Preparedness and Response.    BARDA was established in December 2006 to support the advanced research development and procurement of medical countermeasures against chemical, biological, radiological, and nuclear threats, pandemic influenza, and emerging diseases such as Ebola and Zika.    In 2010, BARDA initiated its Broad Spectrum Antimicrobials program, or the BSA program that I'll refer to, and in 2016, Congress awarded BARDA substantial new funding specifically to combat antibiotic-resistant bacteria. The BSA program was established to support the development of new classes of antibiotics for both biodefense and commercial applications. Under the auspices of the program, we now manage seven public-private partnerships and a pipeline of nine antibacterials.    BARDA's objectives have been to revitalize the antibiotic pipeline, emphasize programs that address the immediate public health threat of multidrug-resistant organisms, and enhance our biodefense capabilities. We have achieved notable success. Our portfolio is quite mature at this point. Five BARDA products are in phase 3 clinical development, and two have completed the pivotal studies required for FDA approval.    Several products show promise for the treatment of infections due to carbapenem-resistant Enterobacteriaceae or CRE, one of the most urgent threats that we face, and a few have shown in vitro activity against bacteria harboring the MCR-1 colistin-resistance gene recently identified in a patient in Pennsylvania.    And we are working with our international partners. One of our partnerships has facilitated groundbreaking coordination of funding with the EU's Innovative Medicines Initiative to speed the development of a drug called aztreonam-avibactam.    BARDA also supports the development of improved clinical diagnostics. Without better diagnostics to guide antibiotic therapy, it will be difficult to prevent the emergence of resistant bacteria. BARDA would thus support a diverse set of tools to differentiate viral and bacterial infections, identify resistant infections in the physician's office, and measure antimicrobial susceptibility. BARDA aims to simplify genetic sequencing tools so that they can be used in clinical laboratories for the evaluation of resistant infections.    Finally, BARDA and NIH will offer a $20 million prize for the development of truly novel diagnostics for drug-resistant bacteria. We will be announcing more details about this prize later this year.    To achieve these goals, BARDA employs innovative partnership models. Within HHS, BARDA has pioneered the use of portfolio partnerships that can advance multiple drug candidates simultaneously. BARDA has established these flexible cost-sharing business partnerships using our other transaction authority. We have found that portfolio-based funding reduces risk by allowing for the reallocation of resources across activities and among drug candidates as technical and business risks materialize.    Clearly, the early-stage antimicrobial pipeline is too thin. To enrich it, BARDA and NIAID are working together to establish an initiative we are calling the CARB accelerator. Innovation frequently occurs in small biotechnology companies and in academic laboratories with limited resources and expertise to move product candidates forward. In such circumstances, promising early-stage candidates often fail to advance. The accelerator will serve as an incubator for new products and explicitly seeks to improve success rates in the early-stage antibiotic pipeline.    BARDA will launch the accelerator in 2016 and support the program for at least 5 years while NIAID will provide an array of product development support services. Both entities will collaborate in managing the program and its investments through a joint oversight committee. Stay tuned. We certainly will have a lot more to report on this initiative in coming years.    In summary, as new forms of antibiotic resistance continue to spread worldwide, the prospect of bacterial strains resistant to all available antibiotics can no longer be ignored. Developing new tools for diagnosing and treating drug-resistant bacteria will be essential to preserving the practice of modern medicine.    ASPR and its partners play a critical role in leading the charge against such threats, and we look forward to working with Congress to address the global challenge of antimicrobial resistance. I look forward to addressing your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Doctor.    Now, Dr. Dixon, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Dixon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Dixon. Thank you, Mr. Chairman, Ranking Member DeGette----</t>
   </si>
   <si>
@@ -535,9 +502,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I want to thank the witnesses as well. It has always been a concern to many of us, but maybe to answer a question that I know goes through a lot of families when our kids say I have got an infection, I need an antibiotic. And many moms and dads say, well, no, if you take these antibiotics, you will become antibiotic resistant, and some day when you are older and you really need one, it is not going to work.    Contrasted to what we are talking about today is it is not a person who becomes antibiotic resistant, which is kind of this old wives' tale versus there are bugs that are figuring out a way to become antibiotic resistant. And a person getting one of those bugs, even if they have never taken an antibiotic in their life, has the same risk. Would that be a fair----</t>
   </si>
   <si>
@@ -625,9 +589,6 @@
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Thank you, Mr. Chairman. Thank you all for your expert testimony today.    I want to return to the discussion of how we tackle this internationally, as Mr. McKinley focused on, because no single country like the U.S. can do this alone. We are so interconnected now. People travel. You said microbes travel, animals travel, food travels.    In July of 2014, the U.K. commissioned a study on the global problem of antimicrobial resistance. The study concluded that we must be concerned about drug resistance globally if we expect to be safe at home. An important theme discussed in the report is that infectious diseases profoundly affect poorer countries due to unsanitary living conditions. Unsanitary conditions, the report says, ``act as a catalyst of rapid person-to-person spread, which can lead to an increase in the use and overuse of antibiotics.''    Dr. Bell, what effect do poor living conditions and access to clean food and water have on the spread of infectious diseases, and how can poor sanitation contribute to the overuse of antibiotics?</t>
   </si>
   <si>
@@ -667,9 +628,6 @@
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman.    And I appreciate the patience you all have had with us this morning as we are running up and down to committees, hearings going on at the same time. So we have been in and out and you have been patient.    Dr. Hatchett, I want to come to you. Going back into February BARDA established the accelerator to support and research and development--and of course as we have worked on 21st Century Cures, we have been so interested in that, and then looking at the candidates that you were going to accelerate through this program with the drugs and vaccines and diagnostics and move that into development. And for us then moving it on to commercialization and into the mainstream.    I would like it if you could take just a minute and talk a little bit about the specific candidates that you all have put in that, about some of the vaccines or the microbials, some of the alternative therapies that you are reviewing in that program.</t>
   </si>
   <si>
@@ -751,9 +709,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair.    My good friend and colleague, Representative Louise Slaughter, to my knowledge the only microbiologist in Congress, has been raising alarm bells for quite some time about the excessive use of antibiotics in our farm animals and feedstock.    I know that the FDA has shared similar concerns about antibiotic use and resistance in farm animals. In fact, FDA's Center for Veterinary Medicine has developed a multipronged effort to limit or reverse resistance arising from the use of antibiotics in food-producing animals.    Dr. Woodcock, I understand that FDA's efforts to control antibiotic use in farm animals are not entirely in your wheelhouse given where you sit in the agency. However, can you walk us through what FDA is doing to address the nexus between antibiotic resistance and the overuse of antibiotics at the farm?</t>
   </si>
   <si>
@@ -808,9 +763,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Well, I don't know about the antibiotics in cattle, but I live on a farm and I am on three different antibiotics as we speak. I literally just got off Bactrim and I am on a Z-Pak and I have got another one that was prescribed to me yesterday. And so to say that they are overprescribed, I thank the Lord for them, but I will probably say you are accurate on that.    With that being said, the University of Oklahoma has done a phenomenal job on trying to close the gap on what they call the superbug, and they recently developed a new antibiotic to go after what a lot of people refer to as MRSA or a staph infection. But even with all that development, Dr. Woodcock, despite the recent success at the University of Oklahoma, are there concerns that new drugs aren't being developed quickly enough to help close this gap?</t>
   </si>
   <si>
@@ -890,9 +842,6 @@
   </si>
   <si>
     <t>400360</t>
-  </si>
-  <si>
-    <t>Janice D. Schakowsky</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Schakowsky. This is exactly the conversation that I have been wanting to get into.    Dr. Woodcock, in conclusion you say ``It is virtually undisputed that we are facing a public health crisis because of the rise of serious resistant infections and the simultaneous decline in R&amp;D in this area.'' What I am hearing is that there is not enough profit in addressing this problem. And that sets my hair on fire. If this is a worldwide public health issue and the reason that we cannot make progress is because--as have been called--our industry partners are unwilling to do that because there is not enough money, then it seems to me exactly the space then that government needs to step in and deal with this.    I just don't understand the word ``incentives''--and there may be other ways besides money. I don't know. But what are we talking about here, that these companies are getting out of the business, that the Pfizers are getting out of the business. There is just not enough dough here when at some point this could be just a worldwide problem of the bug that is going to kill, I don't know, millions of people. Somebody answer me.</t>
@@ -1363,11 +1312,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1387,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1415,11 +1360,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1441,11 +1384,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1465,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1493,11 +1432,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1517,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1543,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1569,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1595,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1621,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1649,11 +1576,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1673,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1699,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1727,11 +1648,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1753,11 +1672,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1777,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1805,11 +1720,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1829,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1857,11 +1768,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1881,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1909,11 +1816,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1933,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1961,11 +1864,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1985,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2013,11 +1912,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2037,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2065,11 +1960,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2089,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2117,11 +2008,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2141,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2169,11 +2056,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2193,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2221,11 +2104,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2245,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2273,11 +2152,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2297,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2325,11 +2200,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2349,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2377,11 +2248,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2401,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2429,11 +2296,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2453,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2481,11 +2344,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2505,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2533,11 +2392,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2557,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2585,11 +2440,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2609,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2637,11 +2488,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2661,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2689,11 +2536,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2713,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2741,11 +2584,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2765,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2791,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2817,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2843,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2869,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2895,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2921,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2947,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2973,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2999,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3025,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3051,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G67" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3077,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3103,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3129,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3155,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3181,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3207,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3233,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3259,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
-      </c>
-      <c r="G75" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3285,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3311,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3337,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3363,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
-      </c>
-      <c r="G79" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3389,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3415,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3441,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3467,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
-      </c>
-      <c r="G83" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3493,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3519,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3545,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
-      </c>
-      <c r="G86" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3571,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3597,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3623,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3649,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
-      </c>
-      <c r="G90" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3675,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3701,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
-      </c>
-      <c r="G92" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3727,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3753,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
-      </c>
-      <c r="G94" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3779,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3805,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
-      </c>
-      <c r="G96" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3831,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3857,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
-      </c>
-      <c r="G98" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3883,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3909,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
-      </c>
-      <c r="G100" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3935,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3961,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
-      </c>
-      <c r="G102" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3987,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4013,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
-      </c>
-      <c r="G104" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4039,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
-      </c>
-      <c r="G105" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4065,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
-      </c>
-      <c r="G106" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4091,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4117,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
-      </c>
-      <c r="G108" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4143,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4169,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
-      </c>
-      <c r="G110" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4195,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>25</v>
-      </c>
-      <c r="G111" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4221,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G112" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4247,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
-      </c>
-      <c r="G113" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4273,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
-      </c>
-      <c r="G114" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4299,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
-      </c>
-      <c r="G115" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4325,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4351,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
-      </c>
-      <c r="G117" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4377,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
-      </c>
-      <c r="G118" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4403,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
-      </c>
-      <c r="G119" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4429,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
-      </c>
-      <c r="G120" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4455,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4481,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
-      </c>
-      <c r="G122" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4507,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
-      </c>
-      <c r="G123" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4533,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
-      </c>
-      <c r="G124" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4559,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
-      </c>
-      <c r="G125" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4585,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
-      </c>
-      <c r="G126" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4611,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
-      </c>
-      <c r="G127" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4637,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
-      </c>
-      <c r="G128" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4663,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
-      </c>
-      <c r="G129" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4689,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
-      </c>
-      <c r="G130" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4715,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
-      </c>
-      <c r="G131" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4741,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G132" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4767,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
-      </c>
-      <c r="G133" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4793,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
-      </c>
-      <c r="G134" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4819,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
-      </c>
-      <c r="G135" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4845,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
-      </c>
-      <c r="G136" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4871,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
-      </c>
-      <c r="G137" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4897,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
-      </c>
-      <c r="G138" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4923,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>25</v>
-      </c>
-      <c r="G139" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4949,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
-      </c>
-      <c r="G140" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4975,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
-      </c>
-      <c r="G141" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5001,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
-      </c>
-      <c r="G142" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5027,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
-      </c>
-      <c r="G143" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5053,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
-      </c>
-      <c r="G144" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5079,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
-      </c>
-      <c r="G145" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5105,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
-      </c>
-      <c r="G146" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5131,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
-      </c>
-      <c r="G147" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5157,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
-      </c>
-      <c r="G148" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5183,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
-      </c>
-      <c r="G149" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5209,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
-      </c>
-      <c r="G150" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5235,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
-      </c>
-      <c r="G151" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5261,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
-      </c>
-      <c r="G152" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5287,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>25</v>
-      </c>
-      <c r="G153" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5313,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>172</v>
-      </c>
-      <c r="G154" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5339,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
-      </c>
-      <c r="G155" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5365,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>172</v>
-      </c>
-      <c r="G156" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5391,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
-      </c>
-      <c r="G157" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5417,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>172</v>
-      </c>
-      <c r="G158" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5443,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
-      </c>
-      <c r="G159" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5469,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>172</v>
-      </c>
-      <c r="G160" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5495,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
-      </c>
-      <c r="G161" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5521,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>172</v>
-      </c>
-      <c r="G162" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5547,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
-      </c>
-      <c r="G163" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5573,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
+        <v>161</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
         <v>172</v>
-      </c>
-      <c r="G164" t="s">
-        <v>173</v>
-      </c>
-      <c r="H164" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5599,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
-      </c>
-      <c r="G165" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5625,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>172</v>
-      </c>
-      <c r="G166" t="s">
+        <v>161</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
         <v>173</v>
-      </c>
-      <c r="H166" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5651,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
-      </c>
-      <c r="G167" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5677,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>172</v>
-      </c>
-      <c r="G168" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5703,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
-      </c>
-      <c r="G169" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5729,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>172</v>
-      </c>
-      <c r="G170" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5755,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
-      </c>
-      <c r="G171" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5781,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>172</v>
-      </c>
-      <c r="G172" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5807,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
-      </c>
-      <c r="G173" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5833,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>172</v>
-      </c>
-      <c r="G174" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5859,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
-      </c>
-      <c r="G175" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5885,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>172</v>
-      </c>
-      <c r="G176" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5911,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
-      </c>
-      <c r="G177" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5937,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>172</v>
-      </c>
-      <c r="G178" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5963,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
-      </c>
-      <c r="G179" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5989,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>172</v>
-      </c>
-      <c r="G180" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6015,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
-      </c>
-      <c r="G181" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6041,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>172</v>
-      </c>
-      <c r="G182" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6067,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
-      </c>
-      <c r="G183" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6093,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>172</v>
-      </c>
-      <c r="G184" t="s">
-        <v>173</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6119,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>25</v>
-      </c>
-      <c r="G185" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6145,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>202</v>
-      </c>
-      <c r="G186" t="s">
-        <v>203</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6171,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
-      </c>
-      <c r="G187" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6197,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>202</v>
-      </c>
-      <c r="G188" t="s">
-        <v>203</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6223,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
-      </c>
-      <c r="G189" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6249,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>202</v>
-      </c>
-      <c r="G190" t="s">
-        <v>203</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6275,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
-      </c>
-      <c r="G191" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6301,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>202</v>
-      </c>
-      <c r="G192" t="s">
-        <v>203</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6327,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
-      </c>
-      <c r="G193" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6353,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>202</v>
-      </c>
-      <c r="G194" t="s">
-        <v>203</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6379,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
-      </c>
-      <c r="G195" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6405,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>202</v>
-      </c>
-      <c r="G196" t="s">
-        <v>203</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6431,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>29</v>
-      </c>
-      <c r="G197" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6457,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>216</v>
-      </c>
-      <c r="G198" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6483,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
-      </c>
-      <c r="G199" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6509,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>216</v>
-      </c>
-      <c r="G200" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6535,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
-      </c>
-      <c r="G201" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6561,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>216</v>
-      </c>
-      <c r="G202" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6587,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
-      </c>
-      <c r="G203" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6613,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>216</v>
-      </c>
-      <c r="G204" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6639,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
-      </c>
-      <c r="G205" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6665,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>216</v>
-      </c>
-      <c r="G206" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6691,13 +6230,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>41</v>
-      </c>
-      <c r="G207" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6717,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>216</v>
-      </c>
-      <c r="G208" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6743,13 +6278,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
-      </c>
-      <c r="G209" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6769,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>216</v>
-      </c>
-      <c r="G210" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6795,13 +6326,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
-      </c>
-      <c r="G211" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6821,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>216</v>
-      </c>
-      <c r="G212" t="s">
+        <v>203</v>
+      </c>
+      <c r="G212" t="s"/>
+      <c r="H212" t="s">
         <v>217</v>
-      </c>
-      <c r="H212" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6847,13 +6374,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
-      </c>
-      <c r="G213" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6873,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>216</v>
-      </c>
-      <c r="G214" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6899,13 +6422,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
-      </c>
-      <c r="G215" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6925,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>216</v>
-      </c>
-      <c r="G216" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6951,13 +6470,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
-      </c>
-      <c r="G217" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6977,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>216</v>
-      </c>
-      <c r="G218" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7003,13 +6518,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>41</v>
-      </c>
-      <c r="G219" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7029,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>216</v>
-      </c>
-      <c r="G220" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7055,13 +6566,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
-      </c>
-      <c r="G221" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7081,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>216</v>
-      </c>
-      <c r="G222" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7107,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>41</v>
-      </c>
-      <c r="G223" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7133,13 +6638,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>216</v>
-      </c>
-      <c r="G224" t="s">
-        <v>217</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7159,13 +6662,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>29</v>
-      </c>
-      <c r="G225" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7185,13 +6686,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>244</v>
-      </c>
-      <c r="G226" t="s">
-        <v>245</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7211,13 +6710,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
-      </c>
-      <c r="G227" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7237,13 +6734,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>244</v>
-      </c>
-      <c r="G228" t="s">
-        <v>245</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7263,13 +6758,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
-      </c>
-      <c r="G229" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7289,13 +6782,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>244</v>
-      </c>
-      <c r="G230" t="s">
-        <v>245</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7315,13 +6806,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
-      </c>
-      <c r="G231" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7341,13 +6830,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>244</v>
-      </c>
-      <c r="G232" t="s">
-        <v>245</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7367,13 +6854,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
-      </c>
-      <c r="G233" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7393,13 +6878,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>244</v>
-      </c>
-      <c r="G234" t="s">
-        <v>245</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7419,13 +6902,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>41</v>
-      </c>
-      <c r="G235" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7445,13 +6926,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>244</v>
-      </c>
-      <c r="G236" t="s">
-        <v>245</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7471,13 +6950,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>41</v>
-      </c>
-      <c r="G237" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7497,13 +6974,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>244</v>
-      </c>
-      <c r="G238" t="s">
-        <v>245</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7523,13 +6998,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
-      </c>
-      <c r="G239" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7549,13 +7022,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
+        <v>230</v>
+      </c>
+      <c r="G240" t="s"/>
+      <c r="H240" t="s">
         <v>244</v>
-      </c>
-      <c r="G240" t="s">
-        <v>245</v>
-      </c>
-      <c r="H240" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7575,13 +7046,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>41</v>
-      </c>
-      <c r="G241" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7601,13 +7070,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>244</v>
-      </c>
-      <c r="G242" t="s">
-        <v>245</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7627,13 +7094,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>29</v>
-      </c>
-      <c r="G243" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7653,13 +7118,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>263</v>
-      </c>
-      <c r="G244" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7679,13 +7142,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
-      </c>
-      <c r="G245" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7705,13 +7166,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>263</v>
-      </c>
-      <c r="G246" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7731,13 +7190,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
-      </c>
-      <c r="G247" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7757,13 +7214,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>263</v>
-      </c>
-      <c r="G248" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7783,13 +7238,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
-      </c>
-      <c r="G249" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7809,13 +7262,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>263</v>
-      </c>
-      <c r="G250" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7835,13 +7286,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>41</v>
-      </c>
-      <c r="G251" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7861,13 +7310,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>263</v>
-      </c>
-      <c r="G252" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7887,13 +7334,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>41</v>
-      </c>
-      <c r="G253" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7913,13 +7358,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>263</v>
-      </c>
-      <c r="G254" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7939,13 +7382,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>41</v>
-      </c>
-      <c r="G255" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7965,13 +7406,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>263</v>
-      </c>
-      <c r="G256" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7991,13 +7430,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>41</v>
-      </c>
-      <c r="G257" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8017,13 +7454,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
+        <v>248</v>
+      </c>
+      <c r="G258" t="s"/>
+      <c r="H258" t="s">
         <v>263</v>
-      </c>
-      <c r="G258" t="s">
-        <v>264</v>
-      </c>
-      <c r="H258" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8043,13 +7478,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>41</v>
-      </c>
-      <c r="G259" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8069,13 +7502,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>263</v>
-      </c>
-      <c r="G260" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8095,13 +7526,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>41</v>
-      </c>
-      <c r="G261" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8121,13 +7550,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>263</v>
-      </c>
-      <c r="G262" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8147,13 +7574,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>41</v>
-      </c>
-      <c r="G263" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8173,13 +7598,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>263</v>
-      </c>
-      <c r="G264" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8199,13 +7622,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>41</v>
-      </c>
-      <c r="G265" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8225,13 +7646,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>263</v>
-      </c>
-      <c r="G266" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8251,13 +7670,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>41</v>
-      </c>
-      <c r="G267" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8277,13 +7694,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>263</v>
-      </c>
-      <c r="G268" t="s">
-        <v>264</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8303,13 +7718,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>29</v>
-      </c>
-      <c r="G269" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8329,13 +7742,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>291</v>
-      </c>
-      <c r="G270" t="s">
-        <v>292</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8355,13 +7766,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>41</v>
-      </c>
-      <c r="G271" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8381,13 +7790,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>291</v>
-      </c>
-      <c r="G272" t="s">
-        <v>292</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8407,13 +7814,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>41</v>
-      </c>
-      <c r="G273" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8433,13 +7838,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>291</v>
-      </c>
-      <c r="G274" t="s">
-        <v>292</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8459,13 +7862,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>41</v>
-      </c>
-      <c r="G275" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8485,13 +7886,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>291</v>
-      </c>
-      <c r="G276" t="s">
-        <v>292</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8511,13 +7910,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
-      </c>
-      <c r="G277" t="s">
-        <v>48</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8537,13 +7934,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>291</v>
-      </c>
-      <c r="G278" t="s">
-        <v>292</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8563,13 +7958,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>29</v>
-      </c>
-      <c r="G279" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8589,13 +7982,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>41</v>
-      </c>
-      <c r="G280" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8615,13 +8006,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>29</v>
-      </c>
-      <c r="G281" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8641,13 +8030,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
-      </c>
-      <c r="G282" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8667,13 +8054,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>29</v>
-      </c>
-      <c r="G283" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8693,13 +8078,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>41</v>
-      </c>
-      <c r="G284" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8719,13 +8102,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>29</v>
-      </c>
-      <c r="G285" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8745,13 +8126,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>41</v>
-      </c>
-      <c r="G286" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8771,13 +8150,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>29</v>
-      </c>
-      <c r="G287" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8797,13 +8174,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>41</v>
-      </c>
-      <c r="G288" t="s">
-        <v>42</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8823,13 +8198,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>29</v>
-      </c>
-      <c r="G289" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8849,13 +8222,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>41</v>
-      </c>
-      <c r="G290" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8875,13 +8246,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>29</v>
-      </c>
-      <c r="G291" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8901,13 +8270,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>41</v>
-      </c>
-      <c r="G292" t="s">
-        <v>45</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8927,13 +8294,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>29</v>
-      </c>
-      <c r="G293" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
